--- a/ExcelConvertToolsXiongSetup/Config.xlsx
+++ b/ExcelConvertToolsXiongSetup/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560FE24-D3D9-4FF6-982B-56BE21686568}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EA284B-CD14-4136-97F1-8CB5EDDC5AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21615" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,21 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>Client</t>
   </si>
@@ -168,9 +176,6 @@
     <t>Shipper Name</t>
   </si>
   <si>
-    <t>Collection Office</t>
-  </si>
-  <si>
     <t>USD</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -302,6 +307,21 @@
   </si>
   <si>
     <t>Booking Office</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientLenght</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注:列Client长度限制(必须&lt;=当前数字)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge Amount</t>
+  </si>
+  <si>
+    <t>Charge Currency</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +503,15 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -930,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,6 +978,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1307,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1316,6 +1351,8 @@
     <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.06640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9.9296875" bestFit="1" customWidth="1"/>
@@ -1457,24 +1494,24 @@
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="3"/>
       <c r="M2" s="4"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1494,8 +1531,12 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
+      <c r="AI2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3" t="s">
         <v>46</v>
@@ -1532,167 +1573,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1718,51 +1759,86 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>82</v>
-      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324FA0C4-EE23-4E52-8E52-B6FCF8586873}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ExcelConvertToolsXiongSetup/Config.xlsx
+++ b/ExcelConvertToolsXiongSetup/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EA284B-CD14-4136-97F1-8CB5EDDC5AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB49B7D-7364-4EB2-836B-09E377C350B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21615" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21615" windowHeight="15196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1342,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
@@ -1816,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324FA0C4-EE23-4E52-8E52-B6FCF8586873}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/ExcelConvertToolsXiongSetup/Config.xlsx
+++ b/ExcelConvertToolsXiongSetup/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB49B7D-7364-4EB2-836B-09E377C350B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67FCAD-B827-4264-8CE8-BF931CAAE394}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21615" windowHeight="15196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21698" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>Client</t>
   </si>
@@ -323,6 +323,21 @@
   <si>
     <t>Charge Currency</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>LSV</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>LCH</t>
+  </si>
+  <si>
+    <t>LCD</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D9E6E-087E-4D50-BCEF-441E1A9B9455}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1734,6 +1749,50 @@
       </c>
       <c r="C15" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324FA0C4-EE23-4E52-8E52-B6FCF8586873}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/ExcelConvertToolsXiongSetup/Config.xlsx
+++ b/ExcelConvertToolsXiongSetup/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67FCAD-B827-4264-8CE8-BF931CAAE394}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE2BC6C-5FF0-4F0E-8B90-9725EFE586EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21698" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21698" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
   <si>
     <t>Client</t>
   </si>
@@ -306,10 +306,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Booking Office</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ClientLenght</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -338,6 +334,14 @@
   </si>
   <si>
     <t>LCD</t>
+  </si>
+  <si>
+    <t>Collection Office</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection Office</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1357,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1547,14 +1551,14 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
@@ -1575,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D9E6E-087E-4D50-BCEF-441E1A9B9455}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1753,10 +1757,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -1764,10 +1768,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>26</v>
@@ -1775,10 +1779,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1786,10 +1790,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1806,9 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D18C44-1E8E-465D-8E0B-C41972931A30}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1818,7 +1820,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>82</v>
@@ -1887,10 +1889,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">

--- a/ExcelConvertToolsXiongSetup/Config.xlsx
+++ b/ExcelConvertToolsXiongSetup/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE2BC6C-5FF0-4F0E-8B90-9725EFE586EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59423B6E-01E0-4447-8DBA-355EE4759E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21698" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21705" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>Client</t>
   </si>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>NTFR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SurCHarges</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -341,6 +337,26 @@
   </si>
   <si>
     <t>Collection Office</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTEX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOR</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,6 +1018,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
@@ -1551,14 +1570,14 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
@@ -1577,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D9E6E-087E-4D50-BCEF-441E1A9B9455}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1592,13 +1611,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1609,7 +1628,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1617,10 +1636,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1628,10 +1647,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1639,10 +1658,10 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1650,10 +1669,10 @@
         <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1661,10 +1680,10 @@
         <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -1672,10 +1691,10 @@
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1683,10 +1702,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1694,10 +1713,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -1705,62 +1724,62 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -1768,10 +1787,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>26</v>
@@ -1779,10 +1798,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1790,13 +1809,35 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1820,50 +1861,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +1930,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">

--- a/ExcelConvertToolsXiongSetup/Config.xlsx
+++ b/ExcelConvertToolsXiongSetup/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xiong Program\CSharpObject\OtherProgram\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\ExcelConvertToolsXiongSetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59423B6E-01E0-4447-8DBA-355EE4759E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F52CFD-F90A-4291-B22F-B8C8E8C3CC88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21705" windowHeight="15196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>Client</t>
   </si>
@@ -192,14 +192,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LDOC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSEA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>THC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -252,95 +244,91 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Charge Currency</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge Code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columns</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA1</t>
+  </si>
+  <si>
+    <t>QINGDAO</t>
+  </si>
+  <si>
+    <t>NG1</t>
+  </si>
+  <si>
+    <t>NINGBO</t>
+  </si>
+  <si>
+    <t>SH1</t>
+  </si>
+  <si>
+    <t>SHANGHAI</t>
+  </si>
+  <si>
+    <t>GU1</t>
+  </si>
+  <si>
+    <t>GUANGZHOU</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>TIANJIN</t>
+  </si>
+  <si>
+    <t>PlaceOfPayment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientLenght</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注:列Client长度限制(必须&lt;=当前数字)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge Amount</t>
+  </si>
+  <si>
+    <t>Charge Currency</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
     <t>LSV</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge Currency</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge Code</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Columns</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA1</t>
-  </si>
-  <si>
-    <t>QINGDAO</t>
-  </si>
-  <si>
-    <t>NG1</t>
-  </si>
-  <si>
-    <t>NINGBO</t>
-  </si>
-  <si>
-    <t>SH1</t>
-  </si>
-  <si>
-    <t>SHANGHAI</t>
-  </si>
-  <si>
-    <t>GU1</t>
-  </si>
-  <si>
-    <t>GUANGZHOU</t>
-  </si>
-  <si>
-    <t>TS1</t>
-  </si>
-  <si>
-    <t>TIANJIN</t>
-  </si>
-  <si>
-    <t>PlaceOfPayment</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientLenght</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注:列Client长度限制(必须&lt;=当前数字)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge Amount</t>
-  </si>
-  <si>
-    <t>Charge Currency</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>LCH</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Collection Office</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection Office</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>LSV</t>
-  </si>
-  <si>
-    <t>LPS</t>
-  </si>
-  <si>
-    <t>LCH</t>
-  </si>
-  <si>
-    <t>LCD</t>
-  </si>
-  <si>
-    <t>Collection Office</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collection Office</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -348,15 +336,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LTEX</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>USD</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SOR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,6 +720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1020,7 +1014,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,14 +1564,14 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
@@ -1598,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D9E6E-087E-4D50-BCEF-441E1A9B9455}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1611,13 +1605,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1636,7 +1630,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -1647,7 +1641,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>50</v>
@@ -1658,7 +1652,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
@@ -1680,7 +1674,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>50</v>
@@ -1691,7 +1685,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
@@ -1702,7 +1696,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>50</v>
@@ -1713,7 +1707,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>50</v>
@@ -1724,119 +1718,119 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>67</v>
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1861,50 +1855,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1924,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
